--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>44.62300474557222</v>
+        <v>40.35273080373261</v>
       </c>
       <c r="D2" t="n">
         <v>0.0007432820064133916</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05929019675229672</v>
+        <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>43.33793364681115</v>
+        <v>40.39666407755084</v>
       </c>
       <c r="G2" t="n">
-        <v>42.986886542218</v>
+        <v>40.01469641258531</v>
       </c>
       <c r="H2" t="n">
-        <v>43.68704707258607</v>
+        <v>40.77480449357979</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007422057331965578</v>
+        <v>0.0007661746251621119</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006929502833462151</v>
+        <v>0.0007164439754845086</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0008351615439475529</v>
+        <v>0.000859645204429976</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05453126866845603</v>
+        <v>0.05788640087906465</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0540216458687248</v>
+        <v>0.05752025359672786</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05510165261471851</v>
+        <v>0.05825604030698193</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,77 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001001590071656752</v>
+        <v>1.39212999630728e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>4.50611571129165e-05</v>
+        <v>5.46209874913611e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002667985023074205</v>
+        <v>3.974521224459411e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0002848598404113607</v>
+        <v>1.214760637515673e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.810367130870287e-05</v>
+        <v>5.098035290843097e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006580804610930378</v>
+        <v>3.457176714674844e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001630433353009401</v>
+        <v>1.433233372497211e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>3.574581472881094e-05</v>
+        <v>5.64745414735122e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0003214662901017646</v>
+        <v>4.089762786646532e-05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40.35273080373261</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0007432820064133916</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.05768901818751787</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40.39667799885081</v>
+      </c>
+      <c r="G4" t="n">
+        <v>40.01469641804741</v>
+      </c>
+      <c r="H4" t="n">
+        <v>40.77484423879204</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0007783222315372687</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0007164490735197994</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0008942169715767244</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.05790073321278962</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.05752025924418201</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0582969379348484</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>40.39666407755084</v>
+        <v>40.39712692701818</v>
       </c>
       <c r="G2" t="n">
-        <v>40.01469641258531</v>
+        <v>40.02746903199561</v>
       </c>
       <c r="H2" t="n">
-        <v>40.77480449357979</v>
+        <v>40.78198216539805</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007661746251621119</v>
+        <v>0.0007660431009308657</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007164439754845086</v>
+        <v>0.0007163948374583131</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000859645204429976</v>
+        <v>0.0008585975897180203</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05788640087906465</v>
+        <v>0.05788646466210554</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05752025359672786</v>
+        <v>0.05752693642257352</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05825604030698193</v>
+        <v>0.0582610020753266</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.39212999630728e-05</v>
+        <v>1.390732078643586e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>5.46209874913611e-09</v>
+        <v>3.517178557547588e-09</v>
       </c>
       <c r="H3" t="n">
-        <v>3.974521224459411e-05</v>
+        <v>3.949985907957101e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.214760637515673e-05</v>
+        <v>1.213666240995336e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>5.098035290843097e-09</v>
+        <v>3.27962226382856e-09</v>
       </c>
       <c r="K3" t="n">
-        <v>3.457176714674844e-05</v>
+        <v>3.435875201259063e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.433233372497211e-05</v>
+        <v>1.431708670029546e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>5.64745414735122e-09</v>
+        <v>3.655956466538689e-09</v>
       </c>
       <c r="N3" t="n">
-        <v>4.089762786646532e-05</v>
+        <v>4.064252801230639e-05</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F4" t="n">
-        <v>40.39667799885081</v>
+        <v>40.39714083433897</v>
       </c>
       <c r="G4" t="n">
-        <v>40.01469641804741</v>
+        <v>40.02746903551279</v>
       </c>
       <c r="H4" t="n">
-        <v>40.77484423879204</v>
+        <v>40.78202166525712</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007783222315372687</v>
+        <v>0.0007781797633408191</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007164490735197994</v>
+        <v>0.0007163981170805768</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0008942169715767244</v>
+        <v>0.0008929563417306109</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05790073321278962</v>
+        <v>0.05790078174880584</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05752025924418201</v>
+        <v>0.05752694007852998</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0582969379348484</v>
+        <v>0.05830164460333891</v>
       </c>
     </row>
   </sheetData>

--- a/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Cl36/Cl36_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F2" t="n">
-        <v>40.39712692701818</v>
+        <v>40.39741067362148</v>
       </c>
       <c r="G2" t="n">
-        <v>40.02746903199561</v>
+        <v>40.02245244293899</v>
       </c>
       <c r="H2" t="n">
-        <v>40.78198216539805</v>
+        <v>40.77365862722088</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007660431009308657</v>
+        <v>0.000765824070251822</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0007163948374583131</v>
+        <v>0.0007163308392964616</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0008585975897180203</v>
+        <v>0.0008583964211809417</v>
       </c>
       <c r="L2" t="n">
-        <v>0.05788646466210554</v>
+        <v>0.05788682845466459</v>
       </c>
       <c r="M2" t="n">
-        <v>0.05752693642257352</v>
+        <v>0.05752239324992253</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0582610020753266</v>
+        <v>0.05825498948212531</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.390732078643586e-05</v>
+        <v>1.392089462884584e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.517178557547588e-09</v>
+        <v>4.514459885090415e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.949985907957101e-05</v>
+        <v>3.969226573169534e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>1.213666240995336e-05</v>
+        <v>1.214812706397338e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>3.27962226382856e-09</v>
+        <v>4.141827379701685e-10</v>
       </c>
       <c r="K3" t="n">
-        <v>3.435875201259063e-05</v>
+        <v>3.451564012716813e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>1.431708670029546e-05</v>
+        <v>1.433227727611874e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>3.655956466538689e-09</v>
+        <v>4.779920793195923e-10</v>
       </c>
       <c r="N3" t="n">
-        <v>4.064252801230639e-05</v>
+        <v>4.084575416167441e-05</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.05768901818751787</v>
       </c>
       <c r="F4" t="n">
-        <v>40.39714083433897</v>
+        <v>40.39742459451611</v>
       </c>
       <c r="G4" t="n">
-        <v>40.02746903551279</v>
+        <v>40.02245244339043</v>
       </c>
       <c r="H4" t="n">
-        <v>40.78202166525712</v>
+        <v>40.77369831948661</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007781797633408191</v>
+        <v>0.0007779721973157954</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0007163981170805768</v>
+        <v>0.0007163312534791996</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0008929563417306109</v>
+        <v>0.0008929120613081097</v>
       </c>
       <c r="L4" t="n">
-        <v>0.05790078174880584</v>
+        <v>0.0579011607319407</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05752694007852998</v>
+        <v>0.05752239372791462</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05830164460333891</v>
+        <v>0.05829583523628697</v>
       </c>
     </row>
   </sheetData>
